--- a/pred_ohlcv/54_21/2019-10-15 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 LBA ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-13006.64799999993</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-13006.64799999993</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>30826.78480000007</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>34244.84870000008</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-116856.7184999999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-116856.7184999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-116856.7184999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-64536.27959999991</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-17783.62869999992</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-17783.62869999992</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-84223.51859999992</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-48125.32189999992</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-114287.1316999999</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-114287.1316999999</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-124089.6283999999</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-124089.6283999999</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-42959.12089999991</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-243795.1769999999</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-474832.8171999999</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-383676.5044999999</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-408276.5044999999</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-185534.9604999999</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-185534.9604999999</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-185534.9604999999</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-186360.9604999999</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-179560.9604999999</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-179560.9604999999</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-183616.0573999999</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-183616.0573999999</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-158020.0573999999</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-15 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 LBA ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3295.194700000073</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-13006.64799999993</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-13006.64799999993</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>30826.78480000007</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>34244.84870000008</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-116856.7184999999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-116856.7184999999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-116856.7184999999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-64536.27959999991</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-73736.27959999992</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-17783.62869999992</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-17783.62869999992</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-84223.51859999992</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-48125.32189999992</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-163087.1316999999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-114287.1316999999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-114287.1316999999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-124089.6283999999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-124089.6283999999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-42959.12089999991</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-127038.8543999999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-224513.7323999999</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-224513.7323999999</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-224513.7323999999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-243795.1769999999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-383676.5044999999</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-408276.5044999999</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-250861.0423999999</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-185534.9604999999</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-185534.9604999999</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-185534.9604999999</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-186360.9604999999</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-179560.9604999999</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-179560.9604999999</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-183616.0573999999</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-183616.0573999999</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-158020.0573999999</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
